--- a/Manual testing project/HLR/project1.xlsx
+++ b/Manual testing project/HLR/project1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Custom Office Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\bhoomi-testing\Manual testing project\HLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E087DD-474A-48D5-A6F0-27821B5640B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D74C44-5E8D-4322-A269-599ED7BA6E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FD522046-2244-4004-84B9-0FF868A8AD58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{FD522046-2244-4004-84B9-0FF868A8AD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="118">
   <si>
     <t xml:space="preserve">Functionality Id </t>
   </si>
@@ -278,12 +279,147 @@
   <si>
     <t xml:space="preserve">while clicking on that button, it redirected into the home page </t>
   </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Functionality Id</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>PreCondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>check website URL</t>
+  </si>
+  <si>
+    <t>internet, browser and website must be on working condition</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com
+2) press enter key</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>To open the website</t>
+  </si>
+  <si>
+    <t>As per expected Result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1) https://www.saucedemo.com
+2) press enter key
+3) click on Login button</t>
+  </si>
+  <si>
+    <t>Username: standard_user
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>To open the user dashboard with proper details</t>
+  </si>
+  <si>
+    <t>As per expected Result but we can't see the user details</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>check Login button with wrong value</t>
+  </si>
+  <si>
+    <t>Username:dffsdrsgrfgvdx
+password: dvdvfdvsvzv</t>
+  </si>
+  <si>
+    <t>To display the proper validation message</t>
+  </si>
+  <si>
+    <t>To display the validation message but not to see properly</t>
+  </si>
+  <si>
+    <t>check Login button with null / blank value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username:
+password: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">its not to display proper validation message </t>
+  </si>
+  <si>
+    <t>check login button with username is required but password is blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: standard_user
+password: </t>
+  </si>
+  <si>
+    <t>its not to display proper validation message and color property</t>
+  </si>
+  <si>
+    <t>check login button with username is blank but password is required</t>
+  </si>
+  <si>
+    <t>Username: 
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with whitespace in username</t>
+  </si>
+  <si>
+    <t>Username:  
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with legth of username</t>
+  </si>
+  <si>
+    <t>Username: cdcdvfvsvfdsdfrsfvfvxvfddxvdvvvddds 
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button with whitespace in between the username</t>
+  </si>
+  <si>
+    <t>Username: efe   fefef   ff
+password: secret_sauce</t>
+  </si>
+  <si>
+    <t>check login button which start with the special character in username</t>
+  </si>
+  <si>
+    <t>Username: @testing
+password: secret_sauce</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +437,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -379,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -411,6 +555,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D769A3-3B51-48E9-B2D0-40C8BED183DB}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -1648,4 +1797,660 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053B05E0-6E21-48F4-B545-A06F802E684E}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>